--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1519784.084989134</v>
+        <v>-1522592.900695872</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14836385.54860293</v>
+        <v>14836385.54860292</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63.13249670976182</v>
+        <v>370.5883037101664</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.1603092314733</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>16.92297757016031</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>127.8799231645348</v>
+        <v>127.8799231645349</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>15.28980726757982</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>160.1994850723023</v>
+        <v>160.1994850723024</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.7173697524019</v>
       </c>
       <c r="U2" t="n">
         <v>251.1742586451435</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>140.7347422221096</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>136.1972169735137</v>
       </c>
       <c r="H3" t="n">
-        <v>101.164597667581</v>
+        <v>84.25425943428961</v>
       </c>
       <c r="I3" t="n">
-        <v>49.92971842544498</v>
+        <v>49.92971842544505</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>28.98666974321219</v>
+        <v>28.98666974321233</v>
       </c>
       <c r="S3" t="n">
         <v>150.3911478434578</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0299597861359</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.689758882003019</v>
+        <v>5.689758882003161</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>92.80218212427191</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2666101070915</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>97.8087144397806</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>96.60727626251149</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>282.8570227122627</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>85.38109548704806</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>129.2269245181087</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>360.6038444920252</v>
       </c>
       <c r="G8" t="n">
-        <v>313.8194027695657</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>7.242727921694293</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>118.1560589559826</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>136.7848966149547</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>95.57362600055866</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>19.86507844888319</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>117.4665281367401</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2381,10 +2381,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2606,7 +2606,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0177171766861</v>
+        <v>83.06560892428207</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>166.5451136812782</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308909</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541845</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3554,7 +3554,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652581</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2140.302494460655</v>
+        <v>181.8725590997491</v>
       </c>
       <c r="C2" t="n">
-        <v>1771.339977520244</v>
+        <v>181.8725590997491</v>
       </c>
       <c r="D2" t="n">
-        <v>1413.074278913493</v>
+        <v>181.8725590997491</v>
       </c>
       <c r="E2" t="n">
-        <v>1027.286026315249</v>
+        <v>181.8725590997491</v>
       </c>
       <c r="F2" t="n">
-        <v>616.3001215256415</v>
+        <v>181.8725590997491</v>
       </c>
       <c r="G2" t="n">
-        <v>198.9664758372847</v>
+        <v>181.8725590997491</v>
       </c>
       <c r="H2" t="n">
-        <v>181.872559099749</v>
+        <v>181.8725590997491</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>220.8886863935818</v>
+        <v>53.48303737322848</v>
       </c>
       <c r="K2" t="n">
-        <v>272.799396529016</v>
+        <v>105.3937475086621</v>
       </c>
       <c r="L2" t="n">
-        <v>787.5855869738928</v>
+        <v>620.1799379535381</v>
       </c>
       <c r="M2" t="n">
-        <v>1376.99095799669</v>
+        <v>1209.585308976335</v>
       </c>
       <c r="N2" t="n">
-        <v>1961.301526581166</v>
+        <v>1793.89587756081</v>
       </c>
       <c r="O2" t="n">
-        <v>2467.861789567846</v>
+        <v>2300.45614054749</v>
       </c>
       <c r="P2" t="n">
-        <v>2543.94415034379</v>
+        <v>2626.084039162239</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2619.60172721541</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2457.784065526216</v>
+        <v>2473.228315291448</v>
       </c>
       <c r="T2" t="n">
-        <v>2457.784065526216</v>
+        <v>2257.352184228416</v>
       </c>
       <c r="U2" t="n">
-        <v>2204.072693157384</v>
+        <v>2003.640811859584</v>
       </c>
       <c r="V2" t="n">
-        <v>2204.072693157384</v>
+        <v>1672.577924516014</v>
       </c>
       <c r="W2" t="n">
-        <v>2204.072693157384</v>
+        <v>1319.8092692459</v>
       </c>
       <c r="X2" t="n">
-        <v>2204.072693157384</v>
+        <v>946.3435109848199</v>
       </c>
       <c r="Y2" t="n">
-        <v>2204.072693157384</v>
+        <v>556.2041790090082</v>
       </c>
     </row>
     <row r="3">
@@ -4392,40 +4392,40 @@
         <v>631.5852505315655</v>
       </c>
       <c r="E3" t="n">
-        <v>489.4289452567074</v>
+        <v>472.34779552611</v>
       </c>
       <c r="F3" t="n">
-        <v>342.8943872835923</v>
+        <v>325.813237552995</v>
       </c>
       <c r="G3" t="n">
-        <v>205.3214408456998</v>
+        <v>188.2402911151024</v>
       </c>
       <c r="H3" t="n">
-        <v>103.1349785552138</v>
+        <v>103.1349785552139</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>159.179021593283</v>
+        <v>159.1790215932828</v>
       </c>
       <c r="K3" t="n">
-        <v>205.9673160579328</v>
+        <v>302.0202522334225</v>
       </c>
       <c r="L3" t="n">
-        <v>315.2024931549749</v>
+        <v>778.3873711808887</v>
       </c>
       <c r="M3" t="n">
-        <v>923.079673821544</v>
+        <v>1386.264551847457</v>
       </c>
       <c r="N3" t="n">
-        <v>1502.682790266694</v>
+        <v>2025.937446078724</v>
       </c>
       <c r="O3" t="n">
-        <v>2021.442839993579</v>
+        <v>2544.697495805608</v>
       </c>
       <c r="P3" t="n">
-        <v>2420.790446915861</v>
+        <v>2628.766961774352</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2047.828025430493</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C4" t="n">
-        <v>2047.828025430493</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D4" t="n">
-        <v>1897.711386018157</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E4" t="n">
-        <v>1897.711386018157</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>1897.711386018157</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>1728.99425492105</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>1728.99425492105</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
-        <v>1728.99425492105</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
-        <v>1728.99425492105</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>1817.483929222004</v>
+        <v>141.1905938405663</v>
       </c>
       <c r="L4" t="n">
-        <v>1986.246681001632</v>
+        <v>309.9533456201945</v>
       </c>
       <c r="M4" t="n">
-        <v>2174.572463563925</v>
+        <v>498.2791281824872</v>
       </c>
       <c r="N4" t="n">
-        <v>2363.854896367561</v>
+        <v>687.5615609861227</v>
       </c>
       <c r="O4" t="n">
-        <v>2522.671563796745</v>
+        <v>846.378228415307</v>
       </c>
       <c r="P4" t="n">
-        <v>2635.045976980643</v>
+        <v>958.7526415992037</v>
       </c>
       <c r="Q4" t="n">
-        <v>2629.2987457867</v>
+        <v>953.005410405261</v>
       </c>
       <c r="R4" t="n">
-        <v>2629.2987457867</v>
+        <v>859.2658325019561</v>
       </c>
       <c r="S4" t="n">
-        <v>2629.2987457867</v>
+        <v>859.2658325019561</v>
       </c>
       <c r="T4" t="n">
-        <v>2629.2987457867</v>
+        <v>859.2658325019561</v>
       </c>
       <c r="U4" t="n">
-        <v>2629.2987457867</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="V4" t="n">
-        <v>2374.614257580814</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="W4" t="n">
-        <v>2275.81757632851</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X4" t="n">
-        <v>2047.828025430493</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y4" t="n">
-        <v>2047.828025430493</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1254.663835044359</v>
+        <v>897.5051208950172</v>
       </c>
       <c r="C5" t="n">
-        <v>1254.663835044359</v>
+        <v>528.5426039546055</v>
       </c>
       <c r="D5" t="n">
-        <v>896.3981364376087</v>
+        <v>170.276905347855</v>
       </c>
       <c r="E5" t="n">
-        <v>510.6098838393645</v>
+        <v>72.69379801198481</v>
       </c>
       <c r="F5" t="n">
-        <v>503.664383090161</v>
+        <v>65.74829726278134</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H5" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>964.3339206741936</v>
+        <v>849.9411865960973</v>
       </c>
       <c r="M5" t="n">
-        <v>1596.051731657505</v>
+        <v>1481.658997579409</v>
       </c>
       <c r="N5" t="n">
-        <v>1790.385944549488</v>
+        <v>2108.966665639256</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866447</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P5" t="n">
         <v>2389.870016205742</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V5" t="n">
-        <v>2303.983089637072</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W5" t="n">
-        <v>2018.268925281251</v>
+        <v>1657.570719220219</v>
       </c>
       <c r="X5" t="n">
-        <v>1644.803167020171</v>
+        <v>1284.104960959139</v>
       </c>
       <c r="Y5" t="n">
-        <v>1254.663835044359</v>
+        <v>1284.104960959139</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4650,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>1005.150115568437</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M6" t="n">
-        <v>1184.647451923042</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686615</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P6" t="n">
         <v>2404.332520920175</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628.4738241757676</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C7" t="n">
-        <v>628.4738241757676</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>478.3571847634319</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>478.3571847634319</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
         <v>52.70091953961285</v>
@@ -4747,28 +4747,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>714.7173549707657</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T7" t="n">
-        <v>714.7173549707657</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U7" t="n">
-        <v>714.7173549707657</v>
+        <v>619.566119563728</v>
       </c>
       <c r="V7" t="n">
-        <v>714.7173549707657</v>
+        <v>364.8816313578411</v>
       </c>
       <c r="W7" t="n">
-        <v>714.7173549707657</v>
+        <v>364.8816313578411</v>
       </c>
       <c r="X7" t="n">
-        <v>628.4738241757676</v>
+        <v>364.8816313578411</v>
       </c>
       <c r="Y7" t="n">
-        <v>628.4738241757676</v>
+        <v>234.3493843698525</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1655.1198601946</v>
+        <v>429.9946048304836</v>
       </c>
       <c r="C8" t="n">
-        <v>1286.157343254188</v>
+        <v>429.9946048304836</v>
       </c>
       <c r="D8" t="n">
-        <v>1286.157343254188</v>
+        <v>429.9946048304836</v>
       </c>
       <c r="E8" t="n">
-        <v>900.3690906559436</v>
+        <v>429.9946048304836</v>
       </c>
       <c r="F8" t="n">
-        <v>489.3831858663361</v>
+        <v>65.74829726278134</v>
       </c>
       <c r="G8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4808,19 +4808,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>784.1365874146478</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.059552207387</v>
+        <v>1829.339000802906</v>
       </c>
       <c r="N8" t="n">
-        <v>1413.39376509937</v>
+        <v>2023.673213694888</v>
       </c>
       <c r="O8" t="n">
-        <v>1960.554969866447</v>
+        <v>2193.842239011848</v>
       </c>
       <c r="P8" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U8" t="n">
-        <v>2381.354273725794</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V8" t="n">
-        <v>2381.354273725794</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="W8" t="n">
-        <v>2028.585618455679</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="X8" t="n">
-        <v>1655.1198601946</v>
+        <v>1206.733776870417</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.1198601946</v>
+        <v>816.5944448946054</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>500.7885757023184</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.150115568437</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.647451923042</v>
+        <v>922.8268672805889</v>
       </c>
       <c r="N9" t="n">
         <v>1430.928743686615</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>526.0083849800903</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C10" t="n">
-        <v>357.0722020521835</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>206.9555626398478</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>206.9555626398478</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>206.9555626398478</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>206.9555626398478</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
         <v>52.70091953961285</v>
@@ -4984,28 +4984,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.635600998958</v>
+        <v>1045.319714209367</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.635600998958</v>
+        <v>1045.319714209367</v>
       </c>
       <c r="T10" t="n">
-        <v>827.0064043113226</v>
+        <v>1045.319714209367</v>
       </c>
       <c r="U10" t="n">
-        <v>827.0064043113226</v>
+        <v>756.1675377870472</v>
       </c>
       <c r="V10" t="n">
-        <v>827.0064043113226</v>
+        <v>501.4830495811603</v>
       </c>
       <c r="W10" t="n">
-        <v>827.0064043113226</v>
+        <v>501.4830495811603</v>
       </c>
       <c r="X10" t="n">
-        <v>707.6568498103301</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y10" t="n">
-        <v>707.6568498103301</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,13 +5051,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,10 +5075,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.941686997837</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1836.866460342035</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.866460342035</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1547.449290305074</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,28 +5513,28 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5601,16 +5601,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5826,16 +5826,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M21" t="n">
         <v>680.0291294438171</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5987,19 +5987,19 @@
         <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6133,10 +6133,10 @@
         <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,64 +6212,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,25 +6361,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2211.689992275817</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1922.614765620014</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1667.930277414127</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1150.523556479149</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6731,7 +6731,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273906</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>590.9096564684978</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1188.28814409505</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1815.886107649656</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2367.795837888943</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2367.795837888943</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,7 +6856,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,13 +6892,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6944,40 +6944,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,28 +7336,28 @@
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452613</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580111</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,13 +7594,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,43 +7634,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
         <v>4606.285157492578</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>252.0661998371776</v>
       </c>
       <c r="Q2" t="n">
-        <v>82.96958466509915</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.02316785403053</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>418.6658311252539</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>182.0175083429755</v>
+        <v>235.565907274548</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>48.10560617263525</v>
+        <v>271.7036563660316</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8456,22 +8456,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>250.7308605730626</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>298.4699926239124</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263525</v>
+        <v>312.5708431852138</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.316305826846356e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-3.824271744423714e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.230370853753821e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-6.589318450818798e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>319.6013449537188</v>
+        <v>12.14553795331415</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>219.6699077504018</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.1603092314733</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>15.28980726758007</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,13 +22711,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0299597861359</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.8394148919928</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>188.7142838968104</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>80.62055371233356</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>71.67319509806917</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465701</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>37.12601365260413</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>205.844576940154</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>134.6711151870879</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>37.12601365260413</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>38.59775584152629</v>
+        <v>65.54986409393028</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>50.86033664601007</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26314,10 +26314,10 @@
         <v>118476.4986260253</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="D2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
         <v>141250.6549457511</v>
@@ -26326,10 +26326,10 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="H2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="I2" t="n">
         <v>141250.6549457511</v>
@@ -26338,10 +26338,10 @@
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262497</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>734303.4749798377</v>
+        <v>734303.4749798367</v>
       </c>
       <c r="C3" t="n">
-        <v>55134.27828024331</v>
+        <v>55134.27828024428</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765845</v>
+        <v>775688.3472765846</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157137</v>
+        <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118923.607285676</v>
+        <v>118923.6072856761</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26424,40 +26424,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="F4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.42449670736</v>
-      </c>
       <c r="G4" t="n">
-        <v>6897.424496707349</v>
+        <v>6897.424496707344</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707381</v>
+        <v>6897.424496707328</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707351</v>
+        <v>6897.424496707354</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707304</v>
+        <v>6897.424496707312</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707306</v>
+        <v>6897.424496707339</v>
       </c>
       <c r="L4" t="n">
         <v>14888.28375980079</v>
       </c>
       <c r="M4" t="n">
+        <v>14888.2837598008</v>
+      </c>
+      <c r="N4" t="n">
         <v>14888.28375980081</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14888.28375980082</v>
       </c>
       <c r="O4" t="n">
         <v>14888.28375980082</v>
       </c>
       <c r="P4" t="n">
-        <v>14888.28375980077</v>
+        <v>14888.28375980083</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85298.15182533272</v>
+        <v>85298.15182533271</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-820048.7354648211</v>
+        <v>-820408.8184805375</v>
       </c>
       <c r="C6" t="n">
-        <v>-187961.8588130882</v>
+        <v>-187961.8588130891</v>
       </c>
       <c r="D6" t="n">
         <v>-132827.5805328448</v>
       </c>
       <c r="E6" t="n">
-        <v>-742457.6466514479</v>
+        <v>-742492.3845768836</v>
       </c>
       <c r="F6" t="n">
-        <v>33230.7006251366</v>
+        <v>33195.9626997009</v>
       </c>
       <c r="G6" t="n">
-        <v>33230.70062513665</v>
+        <v>33195.96269970105</v>
       </c>
       <c r="H6" t="n">
-        <v>33230.70062513663</v>
+        <v>33195.96269970108</v>
       </c>
       <c r="I6" t="n">
-        <v>33230.70062513665</v>
+        <v>33195.96269970093</v>
       </c>
       <c r="J6" t="n">
-        <v>-139130.2917751442</v>
+        <v>-139165.02970058</v>
       </c>
       <c r="K6" t="n">
-        <v>33230.70062513676</v>
+        <v>33195.96269970098</v>
       </c>
       <c r="L6" t="n">
-        <v>6202.192118901672</v>
+        <v>6202.19211890173</v>
       </c>
       <c r="M6" t="n">
         <v>-102447.6867031803</v>
       </c>
       <c r="N6" t="n">
+        <v>25629.91011253346</v>
+      </c>
+      <c r="O6" t="n">
         <v>25629.91011253347</v>
       </c>
-      <c r="O6" t="n">
-        <v>25629.91011253344</v>
-      </c>
       <c r="P6" t="n">
-        <v>25629.91011253354</v>
+        <v>25629.91011253346</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.015790261611063e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26713,10 +26713,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
         <v>24.2846474920397</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532.92903556087</v>
+        <v>532.929035560869</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>532.92903556087</v>
+        <v>532.929035560869</v>
       </c>
       <c r="C3" t="n">
-        <v>60.54706477719499</v>
+        <v>60.54706477719606</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451609</v>
+        <v>658.7614942451611</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>187.2061379913096</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>300.6106808855556</v>
+        <v>317.5336584557159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.7173697524019</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>16.91033823329138</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>16.91033823329144</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>153.6828348553325</v>
       </c>
       <c r="I4" t="n">
-        <v>126.5499954250393</v>
+        <v>126.5499954250394</v>
       </c>
       <c r="J4" t="n">
-        <v>25.41509635344514</v>
+        <v>25.41509635344528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>134.0824567889062</v>
+        <v>41.28027466463435</v>
       </c>
       <c r="S4" t="n">
-        <v>207.2686478538544</v>
+        <v>207.2686478538545</v>
       </c>
       <c r="T4" t="n">
-        <v>223.8394148919928</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2666101070915</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>285.3230938097503</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>66.38394600515034</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>140.3285599019891</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>89.3577288339861</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>46.27220124968619</v>
       </c>
       <c r="G8" t="n">
-        <v>99.09750117637111</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,7 +28026,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>121.930453746097</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>107.5535964330545</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.8421709430404e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29101,10 +29101,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.142428283661788</v>
+        <v>2.142428283661783</v>
       </c>
       <c r="H2" t="n">
-        <v>21.94114366005129</v>
+        <v>21.94114366005125</v>
       </c>
       <c r="I2" t="n">
-        <v>82.59596640587114</v>
+        <v>82.59596640587098</v>
       </c>
       <c r="J2" t="n">
-        <v>181.8359225404398</v>
+        <v>181.8359225404394</v>
       </c>
       <c r="K2" t="n">
-        <v>272.5249117878433</v>
+        <v>272.5249117878428</v>
       </c>
       <c r="L2" t="n">
-        <v>338.0912513739578</v>
+        <v>338.0912513739572</v>
       </c>
       <c r="M2" t="n">
-        <v>376.1916603635281</v>
+        <v>376.1916603635274</v>
       </c>
       <c r="N2" t="n">
-        <v>382.2788347244822</v>
+        <v>382.2788347244814</v>
       </c>
       <c r="O2" t="n">
-        <v>360.9750634788203</v>
+        <v>360.9750634788196</v>
       </c>
       <c r="P2" t="n">
-        <v>308.0838652259199</v>
+        <v>308.0838652259193</v>
       </c>
       <c r="Q2" t="n">
-        <v>231.358152317282</v>
+        <v>231.3581523172816</v>
       </c>
       <c r="R2" t="n">
-        <v>134.5793106735699</v>
+        <v>134.5793106735696</v>
       </c>
       <c r="S2" t="n">
-        <v>48.82058451394303</v>
+        <v>48.82058451394294</v>
       </c>
       <c r="T2" t="n">
-        <v>9.378479811729479</v>
+        <v>9.378479811729461</v>
       </c>
       <c r="U2" t="n">
-        <v>0.171394262692943</v>
+        <v>0.1713942626929426</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.146300189696966</v>
+        <v>1.146300189696964</v>
       </c>
       <c r="H3" t="n">
-        <v>11.07084656891543</v>
+        <v>11.07084656891541</v>
       </c>
       <c r="I3" t="n">
-        <v>39.4669144259701</v>
+        <v>39.46691442597002</v>
       </c>
       <c r="J3" t="n">
-        <v>108.3002297643085</v>
+        <v>108.3002297643083</v>
       </c>
       <c r="K3" t="n">
-        <v>185.1023424740052</v>
+        <v>185.1023424740049</v>
       </c>
       <c r="L3" t="n">
-        <v>248.8929425041592</v>
+        <v>248.8929425041587</v>
       </c>
       <c r="M3" t="n">
-        <v>290.4463243806741</v>
+        <v>290.4463243806736</v>
       </c>
       <c r="N3" t="n">
-        <v>298.1335743370192</v>
+        <v>298.1335743370186</v>
       </c>
       <c r="O3" t="n">
-        <v>272.7339753968917</v>
+        <v>272.7339753968911</v>
       </c>
       <c r="P3" t="n">
-        <v>218.893059908011</v>
+        <v>218.8930599080105</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.3242136883355</v>
+        <v>146.3242136883352</v>
       </c>
       <c r="R3" t="n">
-        <v>71.17116440943094</v>
+        <v>71.1711644094308</v>
       </c>
       <c r="S3" t="n">
-        <v>21.29202326038003</v>
+        <v>21.29202326037999</v>
       </c>
       <c r="T3" t="n">
-        <v>4.620394185664523</v>
+        <v>4.620394185664514</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0754144861642741</v>
+        <v>0.07541448616427394</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9610195723228803</v>
+        <v>0.9610195723228784</v>
       </c>
       <c r="H4" t="n">
-        <v>8.544337652107069</v>
+        <v>8.544337652107053</v>
       </c>
       <c r="I4" t="n">
-        <v>28.90047950221899</v>
+        <v>28.90047950221894</v>
       </c>
       <c r="J4" t="n">
-        <v>67.94408376322764</v>
+        <v>67.9440837632275</v>
       </c>
       <c r="K4" t="n">
-        <v>111.6530012207855</v>
+        <v>111.6530012207853</v>
       </c>
       <c r="L4" t="n">
-        <v>142.8774007797126</v>
+        <v>142.8774007797123</v>
       </c>
       <c r="M4" t="n">
-        <v>150.6441862323948</v>
+        <v>150.6441862323945</v>
       </c>
       <c r="N4" t="n">
-        <v>147.0622041901005</v>
+        <v>147.0622041901002</v>
       </c>
       <c r="O4" t="n">
-        <v>135.8357482770559</v>
+        <v>135.8357482770556</v>
       </c>
       <c r="P4" t="n">
-        <v>116.230949001669</v>
+        <v>116.2309490016688</v>
       </c>
       <c r="Q4" t="n">
-        <v>80.47228436969137</v>
+        <v>80.47228436969122</v>
       </c>
       <c r="R4" t="n">
-        <v>43.21093458826331</v>
+        <v>43.21093458826324</v>
       </c>
       <c r="S4" t="n">
-        <v>16.74795018311783</v>
+        <v>16.74795018311779</v>
       </c>
       <c r="T4" t="n">
-        <v>4.10617453628867</v>
+        <v>4.106174536288662</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05241924939942989</v>
+        <v>0.0524192493994298</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32321,10 +32321,10 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>613.2529048371025</v>
       </c>
       <c r="N18" t="n">
-        <v>366.8427442359099</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,19 +32546,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>577.7447198439381</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -33020,34 +33020,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,34 +33257,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>714.9328157424943</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33494,16 +33494,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>587.1221002143859</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.118592441407</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,34 +33731,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>211.0222436375116</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33992,10 +33992,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963282</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34451,13 +34451,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.8866331858273</v>
+        <v>0.7900180137531549</v>
       </c>
       <c r="K2" t="n">
-        <v>52.43506074286279</v>
+        <v>52.43506074286222</v>
       </c>
       <c r="L2" t="n">
-        <v>519.986050954421</v>
+        <v>519.9860509544203</v>
       </c>
       <c r="M2" t="n">
-        <v>595.3589606290878</v>
+        <v>595.3589606290872</v>
       </c>
       <c r="N2" t="n">
-        <v>590.2126955398754</v>
+        <v>590.2126955398746</v>
       </c>
       <c r="O2" t="n">
-        <v>511.6770333198789</v>
+        <v>511.6770333198782</v>
       </c>
       <c r="P2" t="n">
-        <v>76.85086947065031</v>
+        <v>328.9170693078273</v>
       </c>
       <c r="Q2" t="n">
-        <v>92.02204710793168</v>
+        <v>9.052462442832081</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>107.5536384380507</v>
+        <v>107.5536384380505</v>
       </c>
       <c r="K3" t="n">
-        <v>47.26090349964622</v>
+        <v>144.2840713536764</v>
       </c>
       <c r="L3" t="n">
-        <v>110.338562724285</v>
+        <v>481.1789080277437</v>
       </c>
       <c r="M3" t="n">
-        <v>614.0173542086557</v>
+        <v>614.0173542086552</v>
       </c>
       <c r="N3" t="n">
-        <v>585.4576933789398</v>
+        <v>646.1342365972389</v>
       </c>
       <c r="O3" t="n">
-        <v>524.0000502291767</v>
+        <v>524.0000502291762</v>
       </c>
       <c r="P3" t="n">
-        <v>403.3814211336179</v>
+        <v>84.9186524936803</v>
       </c>
       <c r="Q3" t="n">
-        <v>216.4197273381631</v>
+        <v>6.342439602313704</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>89.38350939490267</v>
+        <v>89.38350939490246</v>
       </c>
       <c r="L4" t="n">
-        <v>170.4674260400288</v>
+        <v>170.4674260400285</v>
       </c>
       <c r="M4" t="n">
-        <v>190.2280631942353</v>
+        <v>190.2280631942351</v>
       </c>
       <c r="N4" t="n">
-        <v>191.1943765693291</v>
+        <v>191.1943765693288</v>
       </c>
       <c r="O4" t="n">
-        <v>160.4208761910956</v>
+        <v>160.4208761910953</v>
       </c>
       <c r="P4" t="n">
-        <v>113.5095082665625</v>
+        <v>113.5095082665623</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>322.7535243442413</v>
+        <v>376.3019232758138</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
         <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>247.6524856312129</v>
@@ -35018,19 +35018,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>248.7689815793672</v>
+        <v>472.3670317727637</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
         <v>233.0438950105733</v>
@@ -35176,22 +35176,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>439.3161260532724</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>410.322846411313</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35261,7 +35261,7 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793672</v>
+        <v>513.2342185919458</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
         <v>479.4543240367771</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="N18" t="n">
-        <v>235.5010321525766</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789214</v>
@@ -36127,7 +36127,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193518</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>439.190340064064</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.4543240367771</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204761</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>444.5258557699415</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,10 +37640,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980852</v>
@@ -37789,13 +37789,13 @@
         <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>261.348781916454</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
